--- a/tools.xlsx
+++ b/tools.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pol/Dropbox/POMA_slides/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pol/Dropbox/POMA/POMA_slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6826432-9958-8049-AE44-0F852BC1BB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Software type</t>
-  </si>
-  <si>
     <t>Workflow4metabolomics</t>
   </si>
   <si>
@@ -83,22 +78,28 @@
     <t>ropls</t>
   </si>
   <si>
-    <t>Graphical User Interface</t>
-  </si>
-  <si>
-    <t>Command Line Interface</t>
-  </si>
-  <si>
-    <t>Statistical tool</t>
-  </si>
-  <si>
-    <t>Tool class</t>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>Statistical analysis tool</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -169,6 +170,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,196 +440,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
     </row>
